--- a/FALL 2020/CSE 306/results/26_jan/SaD_203_CSE306_1_with_MarksDistribution.xlsx
+++ b/FALL 2020/CSE 306/results/26_jan/SaD_203_CSE306_1_with_MarksDistribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ulab_course_materials\FALL 2020\CSE 306\results\26_jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E7D180-0C87-4B07-A293-56DCA8C28BE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC8C80D-1404-40B0-9782-0ED2D63FF8D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="744" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GradeSheet" sheetId="1" r:id="rId1"/>
@@ -1358,8 +1358,8 @@
   </sheetPr>
   <dimension ref="A1:W1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="D16" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16" s="45">
         <f t="shared" si="8"/>
@@ -2149,11 +2149,11 @@
       </c>
       <c r="I16" s="47">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16" s="48">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K16" s="49" t="str">
         <f>VLOOKUP(I16,GradingPolicy!$B$2:$C$11,2)</f>
@@ -2162,7 +2162,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O16" s="27">
         <v>0</v>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="N33" s="25">
         <f>AVERAGE(N10:N28)</f>
-        <v>3.8947368421052633</v>
+        <v>4.1578947368421053</v>
       </c>
       <c r="O33" s="25">
         <f>AVERAGE(O10:O28)</f>
@@ -16080,7 +16080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1290D18D-8570-4DEE-A50B-1648BE4328CB}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
